--- a/PM/AttrapePoison_TestPlan2.xlsx
+++ b/PM/AttrapePoison_TestPlan2.xlsx
@@ -27,42 +27,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>glefebvre</author>
-  </authors>
-  <commentList>
-    <comment ref="C20" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>glefebvre:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-À toi de la monter après consultation avec l'interfaciste</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
   <si>
     <t>Test</t>
   </si>
@@ -298,12 +264,21 @@
       <t xml:space="preserve"> par d'autres colliders.</t>
     </r>
   </si>
+  <si>
+    <t>Bug3</t>
+  </si>
+  <si>
+    <t>Bug4</t>
+  </si>
+  <si>
+    <t>Bug5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,19 +292,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -372,10 +334,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -657,11 +619,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,6 +695,9 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -803,6 +768,9 @@
       <c r="D9" t="s">
         <v>13</v>
       </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -831,6 +799,9 @@
       <c r="D11" t="s">
         <v>13</v>
       </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -875,70 +846,89 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>38</v>
+    <row r="19" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>30</v>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
@@ -947,15 +937,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>40</v>
-      </c>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
@@ -963,25 +951,16 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
+      <c r="B27" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D19">
       <formula1>Résultat</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
